--- a/data/manualTests/davorminchorov_Test_Cases.xlsx
+++ b/data/manualTests/davorminchorov_Test_Cases.xlsx
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>The website is open.</t>
-  </si>
-  <si>
-    <t>Windows 10.0.0</t>
   </si>
   <si>
     <t>All the elements from the test steps field should be on the page</t>
@@ -677,6 +674,9 @@
   </si>
   <si>
     <t>n8</t>
+  </si>
+  <si>
+    <t>Windows 10 pro</t>
   </si>
 </sst>
 </file>
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>27</v>
@@ -1251,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>118</v>
@@ -1263,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>27</v>
@@ -1283,16 +1283,16 @@
         <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -1304,7 +1304,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>27</v>
@@ -1333,10 +1333,10 @@
         <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>37</v>
@@ -1348,7 +1348,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>27</v>
@@ -1377,7 +1377,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>119</v>
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>27</v>
@@ -1424,7 +1424,7 @@
         <v>48</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>44</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>45</v>
@@ -1468,7 +1468,7 @@
         <v>52</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>51</v>
@@ -1480,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>27</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="9" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>74</v>
@@ -1512,7 +1512,7 @@
         <v>55</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>51</v>
@@ -1524,7 +1524,7 @@
         <v>28</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>27</v>
@@ -1556,7 +1556,7 @@
         <v>57</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>51</v>
@@ -1568,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>27</v>
@@ -1597,7 +1597,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>51</v>
@@ -1609,7 +1609,7 @@
         <v>28</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>27</v>
@@ -1641,7 +1641,7 @@
         <v>67</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>51</v>
@@ -1653,7 +1653,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>27</v>
@@ -1685,7 +1685,7 @@
         <v>69</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>51</v>
@@ -1697,7 +1697,7 @@
         <v>44</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>27</v>
@@ -1726,7 +1726,7 @@
         <v>83</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>51</v>
@@ -1738,7 +1738,7 @@
         <v>28</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>27</v>
@@ -1758,7 +1758,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>79</v>
@@ -1767,7 +1767,7 @@
         <v>80</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>51</v>
@@ -1779,7 +1779,7 @@
         <v>28</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>27</v>
@@ -1808,7 +1808,7 @@
         <v>86</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>51</v>
@@ -1820,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>27</v>
@@ -1840,7 +1840,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>79</v>
@@ -1849,7 +1849,7 @@
         <v>88</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>51</v>
@@ -1861,7 +1861,7 @@
         <v>28</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>27</v>
@@ -1890,7 +1890,7 @@
         <v>91</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>51</v>
@@ -1902,7 +1902,7 @@
         <v>28</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>27</v>
@@ -1922,7 +1922,7 @@
         <v>78</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>79</v>
@@ -1931,7 +1931,7 @@
         <v>92</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>51</v>
@@ -1943,7 +1943,7 @@
         <v>28</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>27</v>
@@ -1972,7 +1972,7 @@
         <v>94</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>51</v>
@@ -1984,7 +1984,7 @@
         <v>28</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>27</v>
@@ -2004,7 +2004,7 @@
         <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>79</v>
@@ -2013,7 +2013,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>51</v>
@@ -2025,7 +2025,7 @@
         <v>28</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>27</v>
@@ -2054,7 +2054,7 @@
         <v>104</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>51</v>
@@ -2066,7 +2066,7 @@
         <v>28</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>27</v>
@@ -2086,7 +2086,7 @@
         <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>79</v>
@@ -2095,7 +2095,7 @@
         <v>105</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>51</v>
@@ -2107,7 +2107,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>27</v>
@@ -2136,7 +2136,7 @@
         <v>106</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>51</v>
@@ -2148,7 +2148,7 @@
         <v>28</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>27</v>
@@ -2168,7 +2168,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>79</v>
@@ -2177,7 +2177,7 @@
         <v>109</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>51</v>
@@ -2189,7 +2189,7 @@
         <v>28</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>27</v>
@@ -2209,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>111</v>
@@ -2218,7 +2218,7 @@
         <v>112</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>51</v>
@@ -2230,7 +2230,7 @@
         <v>28</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>27</v>
@@ -2250,7 +2250,7 @@
         <v>77</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>111</v>
@@ -2259,7 +2259,7 @@
         <v>116</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>51</v>
@@ -2271,7 +2271,7 @@
         <v>28</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>27</v>
@@ -2291,7 +2291,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>111</v>
@@ -2300,7 +2300,7 @@
         <v>117</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>51</v>
@@ -2312,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>27</v>
